--- a/biology/Botanique/Phoenix_reclinata/Phoenix_reclinata.xlsx
+++ b/biology/Botanique/Phoenix_reclinata/Phoenix_reclinata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phoenix reclinata, en français Dattier du Sénégal[1], est une espèce de plantes à fleurs de la famille des Arecaceae (palmiers).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phoenix reclinata, en français Dattier du Sénégal, est une espèce de plantes à fleurs de la famille des Arecaceae (palmiers).
 Cette espèce rappelle le palmier des Canaries, mais les troncs multiples sont généralement courbés, ce qui lui a également valu le nom botanique reclinata ("courbé" en latin).
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est originaire d'Afrique tropicale, de la péninsule arabique, de Madagascar et des Comores. Il serait également naturalisé en Floride, à Porto Rico, aux Bermudes et dans les îles sous le vent.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Phoenix reclinata est un palmier dioïque, produisant de multiples tiges de 7,5 à 15 m de hauteur et 30 cm de largeur. 
 Le feuillage est penné et recourbé, atteignant 2,5 à 4,5 m de longueur et 0,75 m de largeur. La couleur des feuilles est brillante à vert foncé sur des pétioles de 30 cm avec de longues épines acérées à la base, avec 20 à 40 feuilles par couronne.
@@ -579,7 +595,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En plus du fruit, qui attire autant les animaux que les humains, le cœur de palmier peut être consommé comme légume. Au KwaZulu-Natal et dans le delta de l'Okavango, au Botswana, la sève est exploitée peu avant la floraison pour produire du vin de palme. Les fibres des jeunes feuilles non ouvertes peuvent être utilisées pour fabriquer des tapis, des kilts et des balais. Les racines contiennent du tanin et peuvent être utilisées pour faire un colorant brun. Ils produisent également une gomme comestible. Le bois est léger et pas particulièrement utile.
 Le palmier dattier sénégalais peut également être utilisé comme plante d'intérieur.
@@ -611,9 +629,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Phoenix reclinata a pour synonymes[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Phoenix reclinata a pour synonymes :
 Fulchironia senegalensis Lesch.
 Phoenix abyssinica Drude
 Phoenix baoulensis A.Chev.
